--- a/espn_scrapper/IPL/Kings XI Punjab/Mayank Agarwal .xlsx
+++ b/espn_scrapper/IPL/Kings XI Punjab/Mayank Agarwal .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,9 +822,149 @@
         <v>148.33</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> Oct 15 2020</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Kings XI won by 8 wickets</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve">Mayank Agarwal </v>
+      </c>
+      <c r="G13" t="str">
+        <v>45</v>
+      </c>
+      <c r="H13" t="str">
+        <v>25</v>
+      </c>
+      <c r="I13" t="str">
+        <v>4</v>
+      </c>
+      <c r="J13" t="str">
+        <v>3</v>
+      </c>
+      <c r="K13" t="str">
+        <v>180.00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> Sep 20 2020</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve">Mayank Agarwal </v>
+      </c>
+      <c r="G14" t="str">
+        <v>89</v>
+      </c>
+      <c r="H14" t="str">
+        <v>60</v>
+      </c>
+      <c r="I14" t="str">
+        <v>7</v>
+      </c>
+      <c r="J14" t="str">
+        <v>4</v>
+      </c>
+      <c r="K14" t="str">
+        <v>148.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve"> Oct 10 2020</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C15" t="str">
+        <v>KKR won by 2 runs</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve">Mayank Agarwal </v>
+      </c>
+      <c r="G15" t="str">
+        <v>56</v>
+      </c>
+      <c r="H15" t="str">
+        <v>39</v>
+      </c>
+      <c r="I15" t="str">
+        <v>6</v>
+      </c>
+      <c r="J15" t="str">
+        <v>1</v>
+      </c>
+      <c r="K15" t="str">
+        <v>143.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve"> Oct 18 2020</v>
+      </c>
+      <c r="B16" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Match tied (Kings XI won the one-over eliminator)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve">Mayank Agarwal </v>
+      </c>
+      <c r="G16" t="str">
+        <v>11</v>
+      </c>
+      <c r="H16" t="str">
+        <v>10</v>
+      </c>
+      <c r="I16" t="str">
+        <v>1</v>
+      </c>
+      <c r="J16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>110.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
   </ignoredErrors>
 </worksheet>
 </file>